--- a/DateBase/orders/Dang Nguyen_2025-7-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-20.xlsx
@@ -643,6 +643,9 @@
       <c r="G2" t="str">
         <v>020203015151010106178.51055106</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
